--- a/NYC Employment and Education Data (restructured wide).xlsx
+++ b/NYC Employment and Education Data (restructured wide).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opnyc\Desktop\NYU MSPP\Policy and Data Studio\COVID-Analysis-Queens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9915E2-602C-42D2-A19D-7551373115AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20283326-3AB1-404B-A0C8-C82CE7FE7C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,7 +1288,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>GED Attainment for the population 25 and Over</a:t>
+              <a:t>GED Attainment for the Population 25 and Over</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1786,7 +1786,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Associates</a:t>
+              <a:t>Associate's</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2293,7 +2293,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Bachelors</a:t>
+              <a:t>Bachelor's</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -7520,7 +7520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F99C1-8C0A-47DD-8B61-76A9316C2F18}">
   <dimension ref="A1:BA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AL34" sqref="AL34"/>
     </sheetView>
   </sheetViews>
